--- a/One_Time_Bills/Adish_Talim_Jobuss_OneTime.xlsx
+++ b/One_Time_Bills/Adish_Talim_Jobuss_OneTime.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Adish Talim. Bill" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Annexure" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1357,7 +1357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1371,20 +1371,20 @@
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
+    <col width="13.36328125" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="18.88671875" customWidth="1" min="3" max="3"/>
+    <col width="18.90625" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="15.109375" customWidth="1" min="5" max="5"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21.88671875" customWidth="1" min="7" max="7"/>
-    <col width="28.5546875" customWidth="1" min="8" max="8"/>
+    <col width="15.08984375" customWidth="1" min="5" max="5"/>
+    <col width="12.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21.90625" customWidth="1" min="7" max="7"/>
+    <col width="28.54296875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1"/>
@@ -1472,7 +1472,7 @@
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="5" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.4" customHeight="1">
       <c r="A8" s="103" t="inlineStr">
         <is>
           <t>5, TTC Industrial Area,</t>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H8" s="15" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="14.4" customHeight="1">
       <c r="A9" s="103" t="inlineStr">
         <is>
           <t>Reliance Corporate Park,</t>
@@ -1501,7 +1501,7 @@
       <c r="H9" s="15" t="n"/>
       <c r="I9" s="8" t="n"/>
     </row>
-    <row r="10">
+    <row r="10" ht="14.4" customHeight="1">
       <c r="A10" s="103" t="inlineStr">
         <is>
           <t>Thane-Belapur Road, Ghansoli, Navi Mumbai 400701</t>
@@ -1516,7 +1516,7 @@
       <c r="H10" s="15" t="n"/>
       <c r="I10" s="8" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="14.4" customHeight="1">
       <c r="A11" s="103" t="inlineStr">
         <is>
           <t>GST NO: 27AAACR5055K1Z7</t>
@@ -1531,7 +1531,7 @@
       <c r="H11" s="15" t="n"/>
       <c r="I11" s="8" t="n"/>
     </row>
-    <row r="12">
+    <row r="12" ht="14.4" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">PAN:  </t>
@@ -1550,10 +1550,14 @@
           <t xml:space="preserve">Bill Date :  </t>
         </is>
       </c>
-      <c r="G12" s="37" t="n"/>
+      <c r="G12" s="37" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
       <c r="H12" s="38" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="14.4" customHeight="1">
       <c r="A13" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Kind Attn: </t>
@@ -1571,10 +1575,14 @@
           <t>Due Date:</t>
         </is>
       </c>
-      <c r="G13" s="64" t="n"/>
+      <c r="G13" s="64" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
       <c r="H13" s="65" t="n"/>
     </row>
-    <row r="14">
+    <row r="14" ht="14.4" customHeight="1">
       <c r="A14" s="67" t="inlineStr">
         <is>
           <t>Place of Service: Navi Mumbai</t>
@@ -1604,7 +1612,7 @@
       <c r="I15" s="16" t="n"/>
       <c r="K15" s="106" t="n"/>
     </row>
-    <row r="16" ht="18.6" customHeight="1" thickBot="1">
+    <row r="16" ht="18.65" customHeight="1" thickBot="1">
       <c r="A16" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Work Order :540038036 </t>
@@ -1621,11 +1629,13 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="107" t="inlineStr">
         <is>
-          <t>Contarct staffing services for Assistance in Various Department Period:</t>
+          <t>One Time Charges for Feb 2026</t>
         </is>
       </c>
       <c r="G17" s="15" t="n"/>
-      <c r="H17" s="108" t="n"/>
+      <c r="H17" s="108" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="n"/>
@@ -1647,7 +1657,7 @@
       <c r="G20" s="31" t="n"/>
       <c r="H20" s="110" t="n"/>
     </row>
-    <row r="21" ht="15.6" customHeight="1">
+    <row r="21" ht="15.65" customHeight="1">
       <c r="A21" s="80" t="inlineStr">
         <is>
           <t>Add : CGST @ 9%</t>
@@ -1659,9 +1669,11 @@
       <c r="E21" s="111" t="n"/>
       <c r="F21" s="111" t="n"/>
       <c r="G21" s="112" t="n"/>
-      <c r="H21" s="113" t="n"/>
-    </row>
-    <row r="22" ht="16.2" customHeight="1" thickBot="1">
+      <c r="H21" s="113" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22" ht="16.25" customHeight="1" thickBot="1">
       <c r="A22" s="66" t="inlineStr">
         <is>
           <t>Add : SGST @ 9%</t>
@@ -1673,7 +1685,9 @@
       <c r="E22" s="114" t="n"/>
       <c r="F22" s="114" t="n"/>
       <c r="G22" s="115" t="n"/>
-      <c r="H22" s="116" t="n"/>
+      <c r="H22" s="116" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="n"/>
@@ -1683,15 +1697,21 @@
       <c r="E23" s="25" t="n"/>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="26" t="n"/>
-      <c r="H23" s="117" t="n"/>
-    </row>
-    <row r="24" ht="15.6" customHeight="1">
+      <c r="H23" s="117" t="n">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" customHeight="1">
       <c r="A24" s="27" t="inlineStr">
         <is>
           <t>Rupees:</t>
         </is>
       </c>
-      <c r="B24" s="28" t="n"/>
+      <c r="B24" s="28" t="inlineStr">
+        <is>
+          <t>Seventeen Thousand, Seven Hundred Only</t>
+        </is>
+      </c>
       <c r="G24" s="15" t="n"/>
       <c r="H24" s="109" t="n"/>
     </row>
@@ -1705,7 +1725,7 @@
       <c r="G25" s="31" t="n"/>
       <c r="H25" s="118" t="n"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
+    <row r="26" ht="15.5" customHeight="1">
       <c r="A26" s="27" t="n"/>
       <c r="B26" s="28" t="n"/>
       <c r="H26" s="119" t="n"/>
@@ -1838,7 +1858,7 @@
       <c r="A44" s="33" t="n"/>
       <c r="H44" s="15" t="n"/>
     </row>
-    <row r="45" ht="15.6" customHeight="1">
+    <row r="45" ht="15.5" customHeight="1">
       <c r="A45" s="33" t="n"/>
       <c r="G45" s="84" t="inlineStr">
         <is>
@@ -1875,7 +1895,7 @@
       <c r="A52" s="33" t="n"/>
       <c r="H52" s="15" t="n"/>
     </row>
-    <row r="53" ht="15.6" customHeight="1">
+    <row r="53" ht="15.5" customHeight="1">
       <c r="A53" s="33" t="n"/>
       <c r="G53" s="84" t="inlineStr">
         <is>
@@ -1884,22 +1904,22 @@
       </c>
       <c r="H53" s="15" t="n"/>
     </row>
-    <row r="54" ht="15.6" customHeight="1">
+    <row r="54" ht="15.5" customHeight="1">
       <c r="A54" s="33" t="n"/>
       <c r="G54" s="28" t="n"/>
       <c r="H54" s="15" t="n"/>
     </row>
-    <row r="55" ht="15.6" customHeight="1">
+    <row r="55" ht="15.5" customHeight="1">
       <c r="A55" s="33" t="n"/>
       <c r="G55" s="28" t="n"/>
       <c r="H55" s="15" t="n"/>
     </row>
-    <row r="56" ht="15.6" customHeight="1">
+    <row r="56" ht="15.5" customHeight="1">
       <c r="A56" s="33" t="n"/>
       <c r="G56" s="28" t="n"/>
       <c r="H56" s="15" t="n"/>
     </row>
-    <row r="57" ht="15.6" customHeight="1">
+    <row r="57" ht="15.5" customHeight="1">
       <c r="A57" s="33" t="n"/>
       <c r="G57" s="28" t="n"/>
       <c r="H57" s="15" t="n"/>
@@ -1908,7 +1928,7 @@
       <c r="A58" s="33" t="n"/>
       <c r="H58" s="15" t="n"/>
     </row>
-    <row r="59" ht="15.6" customHeight="1">
+    <row r="59" ht="15.5" customHeight="1">
       <c r="A59" s="34" t="inlineStr">
         <is>
           <t>●   Early Remittance is Solicited.</t>
@@ -2044,7 +2064,7 @@
       </c>
       <c r="G1" s="124" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Biiling</t>
         </is>
       </c>
       <c r="H1" s="124" t="inlineStr">
@@ -2112,10 +2132,8 @@
           <t>16-02-2026</t>
         </is>
       </c>
-      <c r="G2" s="125" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
+      <c r="G2" s="125" t="n">
+        <v>38106</v>
       </c>
       <c r="H2" s="125" t="n">
         <v>15000</v>
